--- a/content/with_freq.xlsx
+++ b/content/with_freq.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>двух дросселей на наполнителе</t>
+          <t>два дроссель на наполнитель</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>первого ролика на столике</t>
+          <t>первый ролик на столик</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>прижимной резинки на колпаке наполнителя</t>
+          <t>прижимный резинка на колпак наполнитель</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>обоих дросселей</t>
+          <t>оба дроссель</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>двух дросселей №</t>
+          <t>два дроссель №</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>двух дросселей №</t>
+          <t>два дроссель №</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>двух дросселей №</t>
+          <t>два дроссель №</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>прижимной резинки</t>
+          <t>прижимный резинка</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>замена дросселя со2</t>
+          <t>замена дроссель со2</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>замена дросселя с02</t>
+          <t>замена дроссель с02</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>замена дросселя с02</t>
+          <t>замена дроссель с02</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>устранение недолива</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>замена дросселя со2</t>
+          <t>замена дроссель со2</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>сбросных дросселей.</t>
+          <t>сбросный дросселей.</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>замена углекислотного дросселя нагнетаничя.</t>
+          <t>замена углекислотный дроссель нагнетаничя.</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>пустая банка.</t>
+          <t>пустой банка.</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>пустая банка.</t>
+          <t>пустой банка.</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>стакана</t>
+          <t>стакан</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>стакана</t>
+          <t>стакан</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>дросиля</t>
+          <t>дросилить</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>дросиля</t>
+          <t>дросилить</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>замена двух дросселей со2</t>
+          <t>замена два дроссель со2</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>замена дросселя со2</t>
+          <t>замена дроссель со2</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>замена тормозной пластины</t>
+          <t>замена тормозной пластина</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>замена дросселя со2</t>
+          <t>замена дроссель со2</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5458,7 +5458,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>замена ддросселя со2</t>
+          <t>замена ддроссель со2</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>верхнего толкателя дроссиля</t>
+          <t>верхний толкатель дроссиля</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>дросиля</t>
+          <t>дросилить</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>дроселя</t>
+          <t>дросель</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>дроселя</t>
+          <t>дросель</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -6074,7 +6074,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>дроселя</t>
+          <t>дросель</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>верхнего дроселя</t>
+          <t>верхний дросель</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>уплотнение прижимного стакана.</t>
+          <t>уплотнение прижимный стакана.</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -6294,7 +6294,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>прижимного стакана</t>
+          <t>прижимный стакан</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>прижимного цилиндра</t>
+          <t>прижимный цилиндр</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>наполнителя</t>
+          <t>наполнитель</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>дросселя</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>дросселя нагнетания. клапан</t>
+          <t>дроссель нагнетания. клапан</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -6798,7 +6798,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>дросселя нагнетания. клапан</t>
+          <t>дроссель нагнетания. клапан</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -6854,7 +6854,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>недолива</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>недолива</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>недоливы</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>устранение недолива</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -7302,7 +7302,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>тормозной пластины и дросселя нагнетания</t>
+          <t>тормозной пластина и дроссель нагнетание</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>недолива</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>двух дросселей и пластины</t>
+          <t>два дроссель и пластина</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>двух дросселей и пластины</t>
+          <t>два дроссель и пластина</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -7750,7 +7750,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>двух дросселей и пластины</t>
+          <t>два дроссель и пластина</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -7862,7 +7862,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>дросселей и тормоз. пластины</t>
+          <t>дроссель и тормоз. пластина</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -8030,7 +8030,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>дросселя</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>дросселей и тормозной пластины, наполнитель</t>
+          <t>дроссель и тормозной пластины, наполнитель</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -8310,7 +8310,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -8422,7 +8422,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>обоих дросселей</t>
+          <t>оба дроссель</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -8478,7 +8478,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -8534,7 +8534,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>прижимного стакана</t>
+          <t>прижимный стакан</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>недоливов наполнитель</t>
+          <t>недолив наполнитель</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>недоливов наполнитель</t>
+          <t>недолив наполнитель</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -8702,7 +8702,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>колпака</t>
+          <t>колпак</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>обоих дросселей</t>
+          <t>оба дроссель</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -8982,7 +8982,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -9038,7 +9038,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -9094,7 +9094,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>обоих дросселей</t>
+          <t>оба дроссель</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -9262,7 +9262,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>недоливы</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -9430,7 +9430,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>недоливы</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>сбросного клапана</t>
+          <t>сбросный клапан</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -9598,7 +9598,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -9654,7 +9654,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -9710,7 +9710,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>наполнителя</t>
+          <t>наполнитель</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -9822,7 +9822,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -9878,7 +9878,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -9934,7 +9934,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -9990,7 +9990,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -10102,7 +10102,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>прижимного колпака</t>
+          <t>прижимный колпак</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -10158,7 +10158,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>обоих дросселей</t>
+          <t>оба дроссель</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -10214,7 +10214,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>наполнителя</t>
+          <t>наполнитель</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>наполнителя</t>
+          <t>наполнитель</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>обоих дросселей</t>
+          <t>оба дроссель</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -10382,7 +10382,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>дросиля</t>
+          <t>дросилить</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>устранение недоливов</t>
+          <t>устранение недолив</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>недолива</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>тормозной пластины и сбросного дросселя</t>
+          <t>тормозной пластина и сбросный дроссель</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -10662,7 +10662,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>дросселя и тормозной пластины</t>
+          <t>дроссель и тормозной пластина</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>дросселя и тормоз. пластины. наполнитель</t>
+          <t>дроссель и тормоз. пластины. наполнитель</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -10774,7 +10774,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>тормозной пластины и сбросного дросселя</t>
+          <t>тормозной пластина и сбросный дроссель</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -10830,7 +10830,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -10886,7 +10886,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>тормозной пластины и сбросного дросселя</t>
+          <t>тормозной пластина и сбросный дроссель</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>тормоз. пластина и дросселей наполнитель</t>
+          <t>тормоз. пластина и дроссель наполнитель</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -10998,7 +10998,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>тормозн. пластины и дросселей наполнитель</t>
+          <t>тормозн. пластина и дроссель наполнитель</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -11054,7 +11054,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>тормозной пластин. и дросселей наполнитель</t>
+          <t>тормозной пластин. и дроссель наполнитель</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>недолива наполнитель</t>
+          <t>недолив наполнитель</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -11222,7 +11222,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>тормозной пластины и прижимного стакана</t>
+          <t>тормозной пластина и прижимный стакан</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -11278,7 +11278,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -11334,7 +11334,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>наполнителя</t>
+          <t>наполнитель</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -11446,7 +11446,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -11502,7 +11502,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -11558,7 +11558,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>наполнителя</t>
+          <t>наполнитель</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -11614,7 +11614,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -11726,7 +11726,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -12006,7 +12006,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>сбросного дросселя</t>
+          <t>сбросный дроссель</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -12062,7 +12062,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -12118,7 +12118,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -12174,7 +12174,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>пластины</t>
+          <t>пластина</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -12286,7 +12286,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -12398,7 +12398,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -12454,7 +12454,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>тормозно пластины</t>
+          <t>тормозный пластина</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -12510,7 +12510,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>тормозной пластины и дроссиля</t>
+          <t>тормозной пластина и дроссиля</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -12678,7 +12678,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -12734,7 +12734,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -12790,7 +12790,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -12846,7 +12846,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>нагнетательного дросселя</t>
+          <t>нагнетательный дроссель</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -12902,7 +12902,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -12958,7 +12958,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>двух дросселей</t>
+          <t>два дроссель</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -13014,7 +13014,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -13070,7 +13070,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>дросслей</t>
+          <t>дросслить</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -13126,7 +13126,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>дроселя</t>
+          <t>дросель</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -13182,7 +13182,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>тормоз. пластины и дросселя</t>
+          <t>тормоз. пластина и дроссель</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -13238,7 +13238,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>недоливов.замена дросседей нагрузки</t>
+          <t>недоливов.замен дросседеть нагрузка</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>тор. пластины и дросселя нагрузки</t>
+          <t>тор. пластина и дроссель нагрузка</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -13350,7 +13350,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>дросселей</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>тормозной пластины и дроселя нагрузки</t>
+          <t>тормозной пластина и дросель нагрузка</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -13462,7 +13462,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>дроселей нагрузки</t>
+          <t>дросель нагрузка</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -13518,7 +13518,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -13630,7 +13630,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>верхнего дросселя. наполнитель</t>
+          <t>верхний дросселя. наполнитель</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -13686,7 +13686,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -13742,7 +13742,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>недоливов</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -13798,7 +13798,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>недолива</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -13854,7 +13854,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>недолива</t>
+          <t>недолив</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -13910,7 +13910,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>тор. пластины</t>
+          <t>тор. пластина</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>дросселя</t>
+          <t>дроссель</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -14022,7 +14022,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -14078,7 +14078,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>тормозной пластины</t>
+          <t>тормозной пластина</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">

--- a/content/with_freq.xlsx
+++ b/content/with_freq.xlsx
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>45710.08662037037</v>
+        <v>45712.08662037037</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>45710.38315972222</v>
+        <v>45712.38315972222</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>45710.44445601852</v>
+        <v>45712.44445601852</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>45710.45831018518</v>
+        <v>45712.45831018518</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>45710.79361111111</v>
+        <v>45712.79361111111</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>45710.16703703703</v>
+        <v>45712.16703703703</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>45710.86640046296</v>
+        <v>45712.86640046296</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>45710.89383101852</v>
+        <v>45712.89383101852</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>45710.16509259259</v>
+        <v>45712.16509259259</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>45710.43490740741</v>
+        <v>45712.43490740741</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>45710.45452546296</v>
+        <v>45712.45452546296</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>45710.41357638889</v>
+        <v>45712.41357638889</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>45710.43990740741</v>
+        <v>45712.43990740741</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>45710.45306712963</v>
+        <v>45712.45306712963</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>45710.37987268518</v>
+        <v>45712.37987268518</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>45710.03726851852</v>
+        <v>45712.03726851852</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>45710.01820601852</v>
+        <v>45712.01820601852</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>45710.02208333334</v>
+        <v>45712.02208333334</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>45710.02460648148</v>
+        <v>45712.02460648148</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>45710.05824074074</v>
+        <v>45712.05824074074</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>45710.95959490741</v>
+        <v>45712.95959490741</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>45710.1565625</v>
+        <v>45712.1565625</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>45710.84207175926</v>
+        <v>45712.84207175926</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>45710.68405092593</v>
+        <v>45712.68405092593</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>45710.0228587963</v>
+        <v>45712.0228587963</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>45710.23956018518</v>
+        <v>45712.23956018518</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>45710.24226851852</v>
+        <v>45712.24226851852</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>45710.28032407408</v>
+        <v>45712.28032407408</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>45710.02356481482</v>
+        <v>45712.02356481482</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>45710.03376157407</v>
+        <v>45712.03376157407</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>45710.05215277777</v>
+        <v>45712.05215277777</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>45710.25766203704</v>
+        <v>45712.25766203704</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>45710.32285879629</v>
+        <v>45712.32285879629</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>45710.93582175926</v>
+        <v>45712.93582175926</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -2454,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>45710.25748842592</v>
+        <v>45712.25748842592</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -2510,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>45710.41307870371</v>
+        <v>45712.41307870371</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>45710.47840277778</v>
+        <v>45712.47840277778</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>45710.75752314815</v>
+        <v>45712.75752314815</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>45710.7621412037</v>
+        <v>45712.7621412037</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -2734,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>45710.76608796296</v>
+        <v>45712.76608796296</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>45710.76833333333</v>
+        <v>45712.76833333333</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>45710.77277777778</v>
+        <v>45712.77277777778</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>45710.79524305555</v>
+        <v>45712.79524305555</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>45710.25128472222</v>
+        <v>45712.25128472222</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>45710.70414351852</v>
+        <v>45712.70414351852</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>45710.76324074074</v>
+        <v>45712.76324074074</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>45710.18016203704</v>
+        <v>45712.18016203704</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>45710.66983796296</v>
+        <v>45712.66983796296</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>45710.67260416667</v>
+        <v>45712.67260416667</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3294,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>45710.68910879629</v>
+        <v>45712.68910879629</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>45710.69341435185</v>
+        <v>45712.69341435185</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>45710.70173611111</v>
+        <v>45712.70173611111</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>45710.70917824074</v>
+        <v>45712.70917824074</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>45710.38488425926</v>
+        <v>45712.38488425926</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>45710.93650462963</v>
+        <v>45712.93650462963</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
@@ -3626,7 +3626,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>45710.74135416667</v>
+        <v>45712.74135416667</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>45710.59341435185</v>
+        <v>45712.59341435185</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>45710.61</v>
+        <v>45712.61</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>45710.58074074074</v>
+        <v>45712.58074074074</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>45710.04533564814</v>
+        <v>45712.04533564814</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>45710.13015046297</v>
+        <v>45712.13015046297</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>45710.21186342592</v>
+        <v>45712.21186342592</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>45710.34923611111</v>
+        <v>45712.34923611111</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>45710.48965277777</v>
+        <v>45712.48965277777</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>45710.93620370371</v>
+        <v>45712.93620370371</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
@@ -4182,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>45710.9537037037</v>
+        <v>45712.9537037037</v>
       </c>
       <c r="K67" t="b">
         <v>1</v>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>45710.74291666667</v>
+        <v>45712.74291666667</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -4294,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>45710.61619212963</v>
+        <v>45712.61619212963</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>45710.50898148148</v>
+        <v>45712.50898148148</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>45710.53770833334</v>
+        <v>45712.53770833334</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -4462,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>45710.17530092593</v>
+        <v>45712.17530092593</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -4518,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>45710.83957175926</v>
+        <v>45712.83957175926</v>
       </c>
       <c r="K73" t="b">
         <v>1</v>
@@ -4574,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>45710.45819444444</v>
+        <v>45712.45819444444</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -4630,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>45710.34265046296</v>
+        <v>45712.34265046296</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>45710.72099537037</v>
+        <v>45712.72099537037</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>45710.10554398148</v>
+        <v>45712.10554398148</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="J78" s="2" t="n">
-        <v>45710.10847222222</v>
+        <v>45712.10847222222</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
@@ -4854,7 +4854,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="2" t="n">
-        <v>45710.6671412037</v>
+        <v>45712.6671412037</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="2" t="n">
-        <v>45710.55493055555</v>
+        <v>45712.55493055555</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
@@ -4966,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="2" t="n">
-        <v>45710.79594907408</v>
+        <v>45712.79594907408</v>
       </c>
       <c r="K81" t="b">
         <v>1</v>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="2" t="n">
-        <v>45710.27429398148</v>
+        <v>45712.27429398148</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="2" t="n">
-        <v>45710.26635416667</v>
+        <v>45712.26635416667</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="2" t="n">
-        <v>45710.42398148148</v>
+        <v>45712.42398148148</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -5190,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="2" t="n">
-        <v>45710.84730324074</v>
+        <v>45712.84730324074</v>
       </c>
       <c r="K85" t="b">
         <v>1</v>
@@ -5246,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="2" t="n">
-        <v>45710.11854166666</v>
+        <v>45712.11854166666</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="2" t="n">
-        <v>45710.28209490741</v>
+        <v>45712.28209490741</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -5358,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="2" t="n">
-        <v>45710.40930555556</v>
+        <v>45712.40930555556</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -5414,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="2" t="n">
-        <v>45710.44877314815</v>
+        <v>45712.44877314815</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="2" t="n">
-        <v>45710.45171296296</v>
+        <v>45712.45171296296</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="2" t="n">
-        <v>45710.33928240741</v>
+        <v>45712.33928240741</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="2" t="n">
-        <v>45710.78579861111</v>
+        <v>45712.78579861111</v>
       </c>
       <c r="K92" t="b">
         <v>1</v>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="2" t="n">
-        <v>45710.19287037037</v>
+        <v>45712.19287037037</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="2" t="n">
-        <v>45710.44497685185</v>
+        <v>45712.44497685185</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="2" t="n">
-        <v>45710.69747685185</v>
+        <v>45712.69747685185</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="2" t="n">
-        <v>45710.84472222222</v>
+        <v>45712.84472222222</v>
       </c>
       <c r="K96" t="b">
         <v>1</v>
@@ -5862,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="2" t="n">
-        <v>45710.48704861111</v>
+        <v>45712.48704861111</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="2" t="n">
-        <v>45710.49520833333</v>
+        <v>45712.49520833333</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="2" t="n">
-        <v>45710.51393518518</v>
+        <v>45712.51393518518</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
@@ -6030,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="2" t="n">
-        <v>45710.55548611111</v>
+        <v>45712.55548611111</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="2" t="n">
-        <v>45710.13586805556</v>
+        <v>45712.13586805556</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="J102" s="2" t="n">
-        <v>45710.68494212963</v>
+        <v>45712.68494212963</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
@@ -6198,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="2" t="n">
-        <v>45710.42649305556</v>
+        <v>45712.42649305556</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="2" t="n">
-        <v>45710.81266203704</v>
+        <v>45712.81266203704</v>
       </c>
       <c r="K104" t="b">
         <v>1</v>
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="2" t="n">
-        <v>45710.30587962963</v>
+        <v>45712.30587962963</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>2</v>
       </c>
       <c r="J106" s="2" t="n">
-        <v>45710.3734375</v>
+        <v>45712.3734375</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
@@ -6418,7 +6418,7 @@
         <v>2</v>
       </c>
       <c r="J107" s="2" t="n">
-        <v>45710.02710648148</v>
+        <v>45712.02710648148</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
@@ -6474,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="2" t="n">
-        <v>45710.03394675926</v>
+        <v>45712.03394675926</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
@@ -6530,7 +6530,7 @@
         <v>2</v>
       </c>
       <c r="J109" s="2" t="n">
-        <v>45710.0378125</v>
+        <v>45712.0378125</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="2" t="n">
-        <v>45710.94744212963</v>
+        <v>45712.94744212963</v>
       </c>
       <c r="K110" t="b">
         <v>1</v>
@@ -6642,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="2" t="n">
-        <v>45710.14982638889</v>
+        <v>45712.14982638889</v>
       </c>
       <c r="K111" t="b">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="2" t="n">
-        <v>45710.62185185185</v>
+        <v>45712.62185185185</v>
       </c>
       <c r="K112" t="b">
         <v>0</v>
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="2" t="n">
-        <v>45710.74677083334</v>
+        <v>45712.74677083334</v>
       </c>
       <c r="K113" t="b">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="2" t="n">
-        <v>45710.92957175926</v>
+        <v>45712.92957175926</v>
       </c>
       <c r="K114" t="b">
         <v>1</v>
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="2" t="n">
-        <v>45710.60641203704</v>
+        <v>45712.60641203704</v>
       </c>
       <c r="K115" t="b">
         <v>0</v>
@@ -6922,7 +6922,7 @@
         <v>1</v>
       </c>
       <c r="J116" s="2" t="n">
-        <v>45710.74107638889</v>
+        <v>45712.74107638889</v>
       </c>
       <c r="K116" t="b">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="2" t="n">
-        <v>45710.27106481481</v>
+        <v>45712.27106481481</v>
       </c>
       <c r="K117" t="b">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="2" t="n">
-        <v>45710.27672453703</v>
+        <v>45712.27672453703</v>
       </c>
       <c r="K118" t="b">
         <v>0</v>
@@ -7090,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="2" t="n">
-        <v>45710.27616898148</v>
+        <v>45712.27616898148</v>
       </c>
       <c r="K119" t="b">
         <v>0</v>
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="2" t="n">
-        <v>45710.36373842593</v>
+        <v>45712.36373842593</v>
       </c>
       <c r="K120" t="b">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="J121" s="2" t="n">
-        <v>45710.50346064815</v>
+        <v>45712.50346064815</v>
       </c>
       <c r="K121" t="b">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="2" t="n">
-        <v>45710.35907407408</v>
+        <v>45712.35907407408</v>
       </c>
       <c r="K122" t="b">
         <v>0</v>
@@ -7314,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="2" t="n">
-        <v>45710.94997685185</v>
+        <v>45712.94997685185</v>
       </c>
       <c r="K123" t="b">
         <v>1</v>
@@ -7370,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="J124" s="2" t="n">
-        <v>45710.95847222222</v>
+        <v>45712.95847222222</v>
       </c>
       <c r="K124" t="b">
         <v>1</v>
@@ -7426,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="2" t="n">
-        <v>45710.09550925926</v>
+        <v>45712.09550925926</v>
       </c>
       <c r="K125" t="b">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="2" t="n">
-        <v>45710.1204050926</v>
+        <v>45712.1204050926</v>
       </c>
       <c r="K126" t="b">
         <v>0</v>
@@ -7538,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="J127" s="2" t="n">
-        <v>45710.58618055555</v>
+        <v>45712.58618055555</v>
       </c>
       <c r="K127" t="b">
         <v>0</v>
@@ -7594,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="J128" s="2" t="n">
-        <v>45710.19314814815</v>
+        <v>45712.19314814815</v>
       </c>
       <c r="K128" t="b">
         <v>0</v>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="2" t="n">
-        <v>45710.87710648148</v>
+        <v>45712.87710648148</v>
       </c>
       <c r="K129" t="b">
         <v>1</v>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="2" t="n">
-        <v>45710.8806712963</v>
+        <v>45712.8806712963</v>
       </c>
       <c r="K130" t="b">
         <v>1</v>
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="2" t="n">
-        <v>45710.88450231482</v>
+        <v>45712.88450231482</v>
       </c>
       <c r="K131" t="b">
         <v>1</v>
@@ -7818,7 +7818,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="2" t="n">
-        <v>45710.97489583334</v>
+        <v>45712.97489583334</v>
       </c>
       <c r="K132" t="b">
         <v>1</v>
@@ -7874,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="J133" s="2" t="n">
-        <v>45710.03020833333</v>
+        <v>45712.03020833333</v>
       </c>
       <c r="K133" t="b">
         <v>0</v>
@@ -7930,7 +7930,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="2" t="n">
-        <v>45710.02582175926</v>
+        <v>45712.02582175926</v>
       </c>
       <c r="K134" t="b">
         <v>0</v>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="J135" s="2" t="n">
-        <v>45710.39920138889</v>
+        <v>45712.39920138889</v>
       </c>
       <c r="K135" t="b">
         <v>0</v>
@@ -8042,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="n">
-        <v>45710.40362268518</v>
+        <v>45712.40362268518</v>
       </c>
       <c r="K136" t="b">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="J137" s="2" t="n">
-        <v>45710.81097222222</v>
+        <v>45712.81097222222</v>
       </c>
       <c r="K137" t="b">
         <v>1</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="2" t="n">
-        <v>45710.09052083334</v>
+        <v>45712.09052083334</v>
       </c>
       <c r="K138" t="b">
         <v>0</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="2" t="n">
-        <v>45710.49351851852</v>
+        <v>45712.49351851852</v>
       </c>
       <c r="K139" t="b">
         <v>0</v>
@@ -8266,7 +8266,7 @@
         <v>1</v>
       </c>
       <c r="J140" s="2" t="n">
-        <v>45710.89248842592</v>
+        <v>45712.89248842592</v>
       </c>
       <c r="K140" t="b">
         <v>1</v>
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="J141" s="2" t="n">
-        <v>45710.92018518518</v>
+        <v>45712.92018518518</v>
       </c>
       <c r="K141" t="b">
         <v>1</v>
@@ -8378,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="2" t="n">
-        <v>45710.92609953704</v>
+        <v>45712.92609953704</v>
       </c>
       <c r="K142" t="b">
         <v>1</v>
@@ -8434,7 +8434,7 @@
         <v>1</v>
       </c>
       <c r="J143" s="2" t="n">
-        <v>45710.40010416666</v>
+        <v>45712.40010416666</v>
       </c>
       <c r="K143" t="b">
         <v>0</v>
@@ -8490,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="J144" s="2" t="n">
-        <v>45710.4152662037</v>
+        <v>45712.4152662037</v>
       </c>
       <c r="K144" t="b">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="J145" s="2" t="n">
-        <v>45710.4421875</v>
+        <v>45712.4421875</v>
       </c>
       <c r="K145" t="b">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="2" t="n">
-        <v>45710.50371527778</v>
+        <v>45712.50371527778</v>
       </c>
       <c r="K146" t="b">
         <v>0</v>
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="2" t="n">
-        <v>45710.5078125</v>
+        <v>45712.5078125</v>
       </c>
       <c r="K147" t="b">
         <v>0</v>
@@ -8714,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="J148" s="2" t="n">
-        <v>45710.3656712963</v>
+        <v>45712.3656712963</v>
       </c>
       <c r="K148" t="b">
         <v>0</v>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="2" t="n">
-        <v>45710.50451388889</v>
+        <v>45712.50451388889</v>
       </c>
       <c r="K149" t="b">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="J150" s="2" t="n">
-        <v>45710.51282407407</v>
+        <v>45712.51282407407</v>
       </c>
       <c r="K150" t="b">
         <v>0</v>
@@ -8882,7 +8882,7 @@
         <v>1</v>
       </c>
       <c r="J151" s="2" t="n">
-        <v>45710.51707175926</v>
+        <v>45712.51707175926</v>
       </c>
       <c r="K151" t="b">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>1</v>
       </c>
       <c r="J152" s="2" t="n">
-        <v>45710.52237268518</v>
+        <v>45712.52237268518</v>
       </c>
       <c r="K152" t="b">
         <v>0</v>
@@ -8994,7 +8994,7 @@
         <v>1</v>
       </c>
       <c r="J153" s="2" t="n">
-        <v>45710.5278587963</v>
+        <v>45712.5278587963</v>
       </c>
       <c r="K153" t="b">
         <v>0</v>
@@ -9050,7 +9050,7 @@
         <v>1</v>
       </c>
       <c r="J154" s="2" t="n">
-        <v>45710.64739583333</v>
+        <v>45712.64739583333</v>
       </c>
       <c r="K154" t="b">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>1</v>
       </c>
       <c r="J155" s="2" t="n">
-        <v>45710.67512731482</v>
+        <v>45712.67512731482</v>
       </c>
       <c r="K155" t="b">
         <v>0</v>
@@ -9162,7 +9162,7 @@
         <v>1</v>
       </c>
       <c r="J156" s="2" t="n">
-        <v>45710.76006944444</v>
+        <v>45712.76006944444</v>
       </c>
       <c r="K156" t="b">
         <v>1</v>
@@ -9218,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="J157" s="2" t="n">
-        <v>45710.76391203704</v>
+        <v>45712.76391203704</v>
       </c>
       <c r="K157" t="b">
         <v>1</v>
@@ -9274,7 +9274,7 @@
         <v>1</v>
       </c>
       <c r="J158" s="2" t="n">
-        <v>45710.77153935185</v>
+        <v>45712.77153935185</v>
       </c>
       <c r="K158" t="b">
         <v>1</v>
@@ -9330,7 +9330,7 @@
         <v>1</v>
       </c>
       <c r="J159" s="2" t="n">
-        <v>45710.26042824074</v>
+        <v>45712.26042824074</v>
       </c>
       <c r="K159" t="b">
         <v>0</v>
@@ -9386,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="J160" s="2" t="n">
-        <v>45710.19811342593</v>
+        <v>45712.19811342593</v>
       </c>
       <c r="K160" t="b">
         <v>0</v>
@@ -9442,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="2" t="n">
-        <v>45710.61425925926</v>
+        <v>45712.61425925926</v>
       </c>
       <c r="K161" t="b">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="2" t="n">
-        <v>45710.50858796296</v>
+        <v>45712.50858796296</v>
       </c>
       <c r="K162" t="b">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="J163" s="2" t="n">
-        <v>45710.51501157408</v>
+        <v>45712.51501157408</v>
       </c>
       <c r="K163" t="b">
         <v>0</v>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="2" t="n">
-        <v>45710.52091435185</v>
+        <v>45712.52091435185</v>
       </c>
       <c r="K164" t="b">
         <v>0</v>
@@ -9666,7 +9666,7 @@
         <v>1</v>
       </c>
       <c r="J165" s="2" t="n">
-        <v>45710.52909722222</v>
+        <v>45712.52909722222</v>
       </c>
       <c r="K165" t="b">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="2" t="n">
-        <v>45710.53068287037</v>
+        <v>45712.53068287037</v>
       </c>
       <c r="K166" t="b">
         <v>0</v>
@@ -9778,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="J167" s="2" t="n">
-        <v>45710.36340277778</v>
+        <v>45712.36340277778</v>
       </c>
       <c r="K167" t="b">
         <v>0</v>
@@ -9834,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="J168" s="2" t="n">
-        <v>45710.36583333334</v>
+        <v>45712.36583333334</v>
       </c>
       <c r="K168" t="b">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J169" s="2" t="n">
-        <v>45710.370625</v>
+        <v>45712.370625</v>
       </c>
       <c r="K169" t="b">
         <v>0</v>
@@ -9946,7 +9946,7 @@
         <v>1</v>
       </c>
       <c r="J170" s="2" t="n">
-        <v>45710.37789351852</v>
+        <v>45712.37789351852</v>
       </c>
       <c r="K170" t="b">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>1</v>
       </c>
       <c r="J171" s="2" t="n">
-        <v>45710.4450462963</v>
+        <v>45712.4450462963</v>
       </c>
       <c r="K171" t="b">
         <v>0</v>
@@ -10058,7 +10058,7 @@
         <v>1</v>
       </c>
       <c r="J172" s="2" t="n">
-        <v>45710.4762962963</v>
+        <v>45712.4762962963</v>
       </c>
       <c r="K172" t="b">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="2" t="n">
-        <v>45710.52238425926</v>
+        <v>45712.52238425926</v>
       </c>
       <c r="K173" t="b">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="2" t="n">
-        <v>45710.80483796296</v>
+        <v>45712.80483796296</v>
       </c>
       <c r="K174" t="b">
         <v>1</v>
@@ -10226,7 +10226,7 @@
         <v>2</v>
       </c>
       <c r="J175" s="2" t="n">
-        <v>45710.8094212963</v>
+        <v>45712.8094212963</v>
       </c>
       <c r="K175" t="b">
         <v>1</v>
@@ -10282,7 +10282,7 @@
         <v>2</v>
       </c>
       <c r="J176" s="2" t="n">
-        <v>45710.81586805556</v>
+        <v>45712.81586805556</v>
       </c>
       <c r="K176" t="b">
         <v>1</v>
@@ -10338,7 +10338,7 @@
         <v>1</v>
       </c>
       <c r="J177" s="2" t="n">
-        <v>45710.09197916667</v>
+        <v>45712.09197916667</v>
       </c>
       <c r="K177" t="b">
         <v>0</v>
@@ -10394,7 +10394,7 @@
         <v>1</v>
       </c>
       <c r="J178" s="2" t="n">
-        <v>45710.03886574074</v>
+        <v>45712.03886574074</v>
       </c>
       <c r="K178" t="b">
         <v>0</v>
@@ -10450,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="2" t="n">
-        <v>45710.68644675926</v>
+        <v>45712.68644675926</v>
       </c>
       <c r="K179" t="b">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>1</v>
       </c>
       <c r="J180" s="2" t="n">
-        <v>45710.94625</v>
+        <v>45712.94625</v>
       </c>
       <c r="K180" t="b">
         <v>1</v>
@@ -10562,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="2" t="n">
-        <v>45710.05412037037</v>
+        <v>45712.05412037037</v>
       </c>
       <c r="K181" t="b">
         <v>0</v>
@@ -10618,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="2" t="n">
-        <v>45710.67826388889</v>
+        <v>45712.67826388889</v>
       </c>
       <c r="K182" t="b">
         <v>0</v>
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="2" t="n">
-        <v>45710.19027777778</v>
+        <v>45712.19027777778</v>
       </c>
       <c r="K183" t="b">
         <v>0</v>
@@ -10730,7 +10730,7 @@
         <v>1</v>
       </c>
       <c r="J184" s="2" t="n">
-        <v>45710.5333912037</v>
+        <v>45712.5333912037</v>
       </c>
       <c r="K184" t="b">
         <v>0</v>
@@ -10786,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="J185" s="2" t="n">
-        <v>45710.07930555556</v>
+        <v>45712.07930555556</v>
       </c>
       <c r="K185" t="b">
         <v>0</v>
@@ -10842,7 +10842,7 @@
         <v>1</v>
       </c>
       <c r="J186" s="2" t="n">
-        <v>45710.91245370371</v>
+        <v>45712.91245370371</v>
       </c>
       <c r="K186" t="b">
         <v>1</v>
@@ -10898,7 +10898,7 @@
         <v>1</v>
       </c>
       <c r="J187" s="2" t="n">
-        <v>45710.55936342593</v>
+        <v>45712.55936342593</v>
       </c>
       <c r="K187" t="b">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="2" t="n">
-        <v>45710.31326388889</v>
+        <v>45712.31326388889</v>
       </c>
       <c r="K188" t="b">
         <v>0</v>
@@ -11010,7 +11010,7 @@
         <v>0</v>
       </c>
       <c r="J189" s="2" t="n">
-        <v>45710.62347222222</v>
+        <v>45712.62347222222</v>
       </c>
       <c r="K189" t="b">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="J190" s="2" t="n">
-        <v>45710.66591435186</v>
+        <v>45712.66591435186</v>
       </c>
       <c r="K190" t="b">
         <v>0</v>
@@ -11122,7 +11122,7 @@
         <v>2</v>
       </c>
       <c r="J191" s="2" t="n">
-        <v>45710.81189814815</v>
+        <v>45712.81189814815</v>
       </c>
       <c r="K191" t="b">
         <v>1</v>
@@ -11178,7 +11178,7 @@
         <v>2</v>
       </c>
       <c r="J192" s="2" t="n">
-        <v>45710.39488425926</v>
+        <v>45712.39488425926</v>
       </c>
       <c r="K192" t="b">
         <v>0</v>
@@ -11234,7 +11234,7 @@
         <v>2</v>
       </c>
       <c r="J193" s="2" t="n">
-        <v>45710.59278935185</v>
+        <v>45712.59278935185</v>
       </c>
       <c r="K193" t="b">
         <v>0</v>
@@ -11290,7 +11290,7 @@
         <v>1</v>
       </c>
       <c r="J194" s="2" t="n">
-        <v>45710.9650925926</v>
+        <v>45712.9650925926</v>
       </c>
       <c r="K194" t="b">
         <v>1</v>
@@ -11346,7 +11346,7 @@
         <v>1</v>
       </c>
       <c r="J195" s="2" t="n">
-        <v>45710.14775462963</v>
+        <v>45712.14775462963</v>
       </c>
       <c r="K195" t="b">
         <v>0</v>
@@ -11402,7 +11402,7 @@
         <v>2</v>
       </c>
       <c r="J196" s="2" t="n">
-        <v>45710.15505787037</v>
+        <v>45712.15505787037</v>
       </c>
       <c r="K196" t="b">
         <v>0</v>
@@ -11458,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="J197" s="2" t="n">
-        <v>45710.18340277778</v>
+        <v>45712.18340277778</v>
       </c>
       <c r="K197" t="b">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="J198" s="2" t="n">
-        <v>45710.19255787037</v>
+        <v>45712.19255787037</v>
       </c>
       <c r="K198" t="b">
         <v>0</v>
@@ -11570,7 +11570,7 @@
         <v>2</v>
       </c>
       <c r="J199" s="2" t="n">
-        <v>45710.19806712963</v>
+        <v>45712.19806712963</v>
       </c>
       <c r="K199" t="b">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>1</v>
       </c>
       <c r="J200" s="2" t="n">
-        <v>45710.96530092593</v>
+        <v>45712.96530092593</v>
       </c>
       <c r="K200" t="b">
         <v>1</v>
@@ -11682,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="J201" s="2" t="n">
-        <v>45710.1209375</v>
+        <v>45712.1209375</v>
       </c>
       <c r="K201" t="b">
         <v>0</v>
@@ -11738,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="J202" s="2" t="n">
-        <v>45710.26155092593</v>
+        <v>45712.26155092593</v>
       </c>
       <c r="K202" t="b">
         <v>0</v>
@@ -11794,7 +11794,7 @@
         <v>1</v>
       </c>
       <c r="J203" s="2" t="n">
-        <v>45710.47003472222</v>
+        <v>45712.47003472222</v>
       </c>
       <c r="K203" t="b">
         <v>0</v>
@@ -11850,7 +11850,7 @@
         <v>1</v>
       </c>
       <c r="J204" s="2" t="n">
-        <v>45710.36332175926</v>
+        <v>45712.36332175926</v>
       </c>
       <c r="K204" t="b">
         <v>0</v>
@@ -11906,7 +11906,7 @@
         <v>1</v>
       </c>
       <c r="J205" s="2" t="n">
-        <v>45710.36517361111</v>
+        <v>45712.36517361111</v>
       </c>
       <c r="K205" t="b">
         <v>0</v>
@@ -11962,7 +11962,7 @@
         <v>1</v>
       </c>
       <c r="J206" s="2" t="n">
-        <v>45710.83489583333</v>
+        <v>45712.83489583333</v>
       </c>
       <c r="K206" t="b">
         <v>1</v>
@@ -12018,7 +12018,7 @@
         <v>1</v>
       </c>
       <c r="J207" s="2" t="n">
-        <v>45710.12184027778</v>
+        <v>45712.12184027778</v>
       </c>
       <c r="K207" t="b">
         <v>0</v>
@@ -12074,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="J208" s="2" t="n">
-        <v>45710.12681712963</v>
+        <v>45712.12681712963</v>
       </c>
       <c r="K208" t="b">
         <v>0</v>
@@ -12130,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="J209" s="2" t="n">
-        <v>45710.36777777778</v>
+        <v>45712.36777777778</v>
       </c>
       <c r="K209" t="b">
         <v>0</v>
@@ -12186,7 +12186,7 @@
         <v>1</v>
       </c>
       <c r="J210" s="2" t="n">
-        <v>45710.91049768519</v>
+        <v>45712.91049768519</v>
       </c>
       <c r="K210" t="b">
         <v>1</v>
@@ -12242,7 +12242,7 @@
         <v>1</v>
       </c>
       <c r="J211" s="2" t="n">
-        <v>45710.5822337963</v>
+        <v>45712.5822337963</v>
       </c>
       <c r="K211" t="b">
         <v>0</v>
@@ -12298,7 +12298,7 @@
         <v>1</v>
       </c>
       <c r="J212" s="2" t="n">
-        <v>45710.8019212963</v>
+        <v>45712.8019212963</v>
       </c>
       <c r="K212" t="b">
         <v>1</v>
@@ -12354,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="J213" s="2" t="n">
-        <v>45710.28523148148</v>
+        <v>45712.28523148148</v>
       </c>
       <c r="K213" t="b">
         <v>0</v>
@@ -12410,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="J214" s="2" t="n">
-        <v>45710.15754629629</v>
+        <v>45712.15754629629</v>
       </c>
       <c r="K214" t="b">
         <v>0</v>
@@ -12466,7 +12466,7 @@
         <v>0</v>
       </c>
       <c r="J215" s="2" t="n">
-        <v>45710.29001157408</v>
+        <v>45712.29001157408</v>
       </c>
       <c r="K215" t="b">
         <v>0</v>
@@ -12522,7 +12522,7 @@
         <v>0</v>
       </c>
       <c r="J216" s="2" t="n">
-        <v>45710.73984953704</v>
+        <v>45712.73984953704</v>
       </c>
       <c r="K216" t="b">
         <v>0</v>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="J217" s="2" t="n">
-        <v>45710.45083333334</v>
+        <v>45712.45083333334</v>
       </c>
       <c r="K217" t="b">
         <v>0</v>
@@ -12634,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="J218" s="2" t="n">
-        <v>45710.0146875</v>
+        <v>45712.0146875</v>
       </c>
       <c r="K218" t="b">
         <v>0</v>
@@ -12690,7 +12690,7 @@
         <v>0</v>
       </c>
       <c r="J219" s="2" t="n">
-        <v>45710.12405092592</v>
+        <v>45712.12405092592</v>
       </c>
       <c r="K219" t="b">
         <v>0</v>
@@ -12746,7 +12746,7 @@
         <v>0</v>
       </c>
       <c r="J220" s="2" t="n">
-        <v>45710.13258101852</v>
+        <v>45712.13258101852</v>
       </c>
       <c r="K220" t="b">
         <v>0</v>
@@ -12802,7 +12802,7 @@
         <v>1</v>
       </c>
       <c r="J221" s="2" t="n">
-        <v>45710.13880787037</v>
+        <v>45712.13880787037</v>
       </c>
       <c r="K221" t="b">
         <v>0</v>
@@ -12858,7 +12858,7 @@
         <v>1</v>
       </c>
       <c r="J222" s="2" t="n">
-        <v>45710.1452199074</v>
+        <v>45712.1452199074</v>
       </c>
       <c r="K222" t="b">
         <v>0</v>
@@ -12914,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="J223" s="2" t="n">
-        <v>45710.15476851852</v>
+        <v>45712.15476851852</v>
       </c>
       <c r="K223" t="b">
         <v>0</v>
@@ -12970,7 +12970,7 @@
         <v>2</v>
       </c>
       <c r="J224" s="2" t="n">
-        <v>45710.15716435185</v>
+        <v>45712.15716435185</v>
       </c>
       <c r="K224" t="b">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>1</v>
       </c>
       <c r="J225" s="2" t="n">
-        <v>45710.27640046296</v>
+        <v>45712.27640046296</v>
       </c>
       <c r="K225" t="b">
         <v>0</v>
@@ -13082,7 +13082,7 @@
         <v>0</v>
       </c>
       <c r="J226" s="2" t="n">
-        <v>45710.62894675926</v>
+        <v>45712.62894675926</v>
       </c>
       <c r="K226" t="b">
         <v>0</v>
@@ -13138,7 +13138,7 @@
         <v>0</v>
       </c>
       <c r="J227" s="2" t="n">
-        <v>45710.74664351852</v>
+        <v>45712.74664351852</v>
       </c>
       <c r="K227" t="b">
         <v>0</v>
@@ -13194,7 +13194,7 @@
         <v>1</v>
       </c>
       <c r="J228" s="2" t="n">
-        <v>45710.78980324074</v>
+        <v>45712.78980324074</v>
       </c>
       <c r="K228" t="b">
         <v>1</v>
@@ -13250,7 +13250,7 @@
         <v>2</v>
       </c>
       <c r="J229" s="2" t="n">
-        <v>45710.08050925926</v>
+        <v>45712.08050925926</v>
       </c>
       <c r="K229" t="b">
         <v>0</v>
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="J230" s="2" t="n">
-        <v>45710.38342592592</v>
+        <v>45712.38342592592</v>
       </c>
       <c r="K230" t="b">
         <v>0</v>
@@ -13362,7 +13362,7 @@
         <v>1</v>
       </c>
       <c r="J231" s="2" t="n">
-        <v>45710.58386574074</v>
+        <v>45712.58386574074</v>
       </c>
       <c r="K231" t="b">
         <v>0</v>
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="J232" s="2" t="n">
-        <v>45710.53462962963</v>
+        <v>45712.53462962963</v>
       </c>
       <c r="K232" t="b">
         <v>0</v>
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="J233" s="2" t="n">
-        <v>45710.58439814814</v>
+        <v>45712.58439814814</v>
       </c>
       <c r="K233" t="b">
         <v>0</v>
@@ -13530,7 +13530,7 @@
         <v>1</v>
       </c>
       <c r="J234" s="2" t="n">
-        <v>45710.12216435185</v>
+        <v>45712.12216435185</v>
       </c>
       <c r="K234" t="b">
         <v>0</v>
@@ -13586,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="J235" s="2" t="n">
-        <v>45710.128125</v>
+        <v>45712.128125</v>
       </c>
       <c r="K235" t="b">
         <v>0</v>
@@ -13642,7 +13642,7 @@
         <v>1</v>
       </c>
       <c r="J236" s="2" t="n">
-        <v>45710.22577546296</v>
+        <v>45712.22577546296</v>
       </c>
       <c r="K236" t="b">
         <v>0</v>
@@ -13698,7 +13698,7 @@
         <v>1</v>
       </c>
       <c r="J237" s="2" t="n">
-        <v>45710.91571759259</v>
+        <v>45712.91571759259</v>
       </c>
       <c r="K237" t="b">
         <v>1</v>
@@ -13754,7 +13754,7 @@
         <v>1</v>
       </c>
       <c r="J238" s="2" t="n">
-        <v>45710.9265162037</v>
+        <v>45712.9265162037</v>
       </c>
       <c r="K238" t="b">
         <v>1</v>
@@ -13810,7 +13810,7 @@
         <v>2</v>
       </c>
       <c r="J239" s="2" t="n">
-        <v>45710.92482638889</v>
+        <v>45712.92482638889</v>
       </c>
       <c r="K239" t="b">
         <v>1</v>
@@ -13866,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="J240" s="2" t="n">
-        <v>45710.03895833333</v>
+        <v>45712.03895833333</v>
       </c>
       <c r="K240" t="b">
         <v>0</v>
@@ -13922,7 +13922,7 @@
         <v>0</v>
       </c>
       <c r="J241" s="2" t="n">
-        <v>45710.01494212963</v>
+        <v>45712.01494212963</v>
       </c>
       <c r="K241" t="b">
         <v>0</v>
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="J242" s="2" t="n">
-        <v>45710.02105324074</v>
+        <v>45712.02105324074</v>
       </c>
       <c r="K242" t="b">
         <v>0</v>
@@ -14034,7 +14034,7 @@
         <v>1</v>
       </c>
       <c r="J243" s="2" t="n">
-        <v>45710.66967592593</v>
+        <v>45712.66967592593</v>
       </c>
       <c r="K243" t="b">
         <v>0</v>
@@ -14090,7 +14090,7 @@
         <v>1</v>
       </c>
       <c r="J244" s="2" t="n">
-        <v>45710.80247685185</v>
+        <v>45712.80247685185</v>
       </c>
       <c r="K244" t="b">
         <v>1</v>
